--- a/tides2/hardware_design/pcb/kicad/jlcpcb/production_files/NEW-BOM-tides.xlsx
+++ b/tides2/hardware_design/pcb/kicad/jlcpcb/production_files/NEW-BOM-tides.xlsx
@@ -172,10 +172,10 @@
     <t>PANASONIC_B</t>
   </si>
   <si>
-    <t>C336194</t>
-  </si>
-  <si>
-    <t>22uF 25V ±20% SMD,D5xL5.4mm  Aluminum Electrolytic Capacitors - SMD ROHS</t>
+    <t>C72502</t>
+  </si>
+  <si>
+    <t>22uF 16V ±20% SMD,D4xL5.4mm  Aluminum Electrolytic Capacitors - SMD ROHS</t>
   </si>
   <si>
     <t>R41,R32,R27,R34,R31,R18,R33,R19,R52</t>
